--- a/results2.xlsx
+++ b/results2.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thabang Ndhlovu\Projects\HELLO_CREDIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25739112-5881-4019-AD3D-0BF788DB004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B2E61-50B2-47CF-B898-A56EEEBBDE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="903">
   <si>
     <t>security_name</t>
   </si>
@@ -1519,9 +1532,6 @@
     <t>{'profitability': 1.0, 'leverage_coverage': 2.8, 'efficiency': 5.0}</t>
   </si>
   <si>
-    <t>{'profitability': 4.0, 'leverage_coverage': 7.5, 'efficiency': 4.5}</t>
-  </si>
-  <si>
     <t>{'profitability': 6.0, 'leverage_coverage': 3.1, 'efficiency': 3.0}</t>
   </si>
   <si>
@@ -1675,9 +1685,6 @@
     <t>{'profitability': 6.0, 'leverage_coverage': 3.0, 'efficiency': 3.0}</t>
   </si>
   <si>
-    <t>{'profitability': 6.0, 'leverage_coverage': 6.0, 'efficiency': 4.5}</t>
-  </si>
-  <si>
     <t>{'profitability': 5.0, 'leverage_coverage': 2.4, 'efficiency': 3.5}</t>
   </si>
   <si>
@@ -1693,12 +1700,6 @@
     <t>{'profitability': 8.0, 'leverage_coverage': 3.3, 'efficiency': 7.5}</t>
   </si>
   <si>
-    <t>{'profitability': 4.0, 'leverage_coverage': 3.5, 'efficiency': 4.5}</t>
-  </si>
-  <si>
-    <t>{'profitability': 9.0, 'leverage_coverage': 7.1, 'efficiency': 2.5}</t>
-  </si>
-  <si>
     <t>{'profitability': 9.0, 'leverage_coverage': 4.7, 'efficiency': 4.0}</t>
   </si>
   <si>
@@ -1726,9 +1727,6 @@
     <t>{'profitability': 8.0, 'leverage_coverage': 4.1, 'efficiency': 4.5}</t>
   </si>
   <si>
-    <t>{'profitability': 6.0, 'leverage_coverage': 4.3999999999999995, 'efficiency': 4.0}</t>
-  </si>
-  <si>
     <t>{'profitability': 6.0, 'leverage_coverage': 3.9000000000000004, 'efficiency': 3.5}</t>
   </si>
   <si>
@@ -2741,6 +2739,9 @@
   </si>
   <si>
     <t>{'oper_margin': 15.630059433961167, 'tot_debt_to_tot_eqy': 168.23473995652722, 'tot_debt_to_ebitda': 3.2349725160503873, 'ebitda_to_tot_int_exp': 2.1796177732688062, 'return_on_asset': 1.6616200763022868, 'asset_turnover': 0.5614459619814861}</t>
+  </si>
+  <si>
+    <t>METAIR INVESTMENTS LTD</t>
   </si>
 </sst>
 </file>
@@ -2764,12 +2765,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2799,11 +2806,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3110,21 +3121,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="I116" sqref="A116:I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" customWidth="1"/>
     <col min="6" max="6" width="66.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
@@ -3197,13 +3208,13 @@
         <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H2">
         <v>7.41736008926559E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N2">
         <v>5.2960744187884696</v>
@@ -3229,13 +3240,13 @@
         <v>475</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H3">
         <v>2.4875687742108799E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N3">
         <v>13.086630056041329</v>
@@ -3261,25 +3272,25 @@
         <v>476</v>
       </c>
       <c r="G4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H4">
         <v>2.023131960095104E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="K4" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N4">
         <v>77.065738810783273</v>
@@ -3305,25 +3316,25 @@
         <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H5">
         <v>6.6731151755368256E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L5" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N5">
         <v>51.835066689021488</v>
@@ -3349,13 +3360,13 @@
         <v>478</v>
       </c>
       <c r="G6" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H6">
         <v>7.514995395998314E-3</v>
       </c>
       <c r="M6" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N6">
         <v>47.916122004357298</v>
@@ -3381,13 +3392,13 @@
         <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H7">
         <v>2.0552987404076628E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N7">
         <v>9.5887422075540893</v>
@@ -3413,19 +3424,19 @@
         <v>480</v>
       </c>
       <c r="G8" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H8">
         <v>1.169543242704474E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L8" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M8" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3448,13 +3459,13 @@
         <v>481</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H9">
         <v>2.8334400887048639E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N9">
         <v>12.436521739130431</v>
@@ -3480,13 +3491,13 @@
         <v>482</v>
       </c>
       <c r="G10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H10">
         <v>3.242623548327761E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N10">
         <v>77.565180557664391</v>
@@ -3512,13 +3523,13 @@
         <v>483</v>
       </c>
       <c r="G11" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H11">
         <v>8.3009969641517634E-3</v>
       </c>
       <c r="M11" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N11">
         <v>8.1571593717364763</v>
@@ -3544,13 +3555,13 @@
         <v>484</v>
       </c>
       <c r="G12" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H12">
         <v>4.5394101304105927E-3</v>
       </c>
       <c r="M12" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N12">
         <v>6.2009235444879716</v>
@@ -3576,13 +3587,13 @@
         <v>485</v>
       </c>
       <c r="G13" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H13">
         <v>9.1294659694065583E-3</v>
       </c>
       <c r="M13" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N13">
         <v>50.864723630595037</v>
@@ -3608,13 +3619,13 @@
         <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H14">
         <v>6.7300116418993805E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N14">
         <v>99.565714285714279</v>
@@ -3640,19 +3651,19 @@
         <v>487</v>
       </c>
       <c r="G15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H15">
         <v>4.3707567118757777E-2</v>
       </c>
       <c r="K15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L15" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M15" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N15">
         <v>92.726116701621933</v>
@@ -3678,19 +3689,19 @@
         <v>488</v>
       </c>
       <c r="G16" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H16">
         <v>1.2459374677395879E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J16" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="M16" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N16">
         <v>16.046086719389152</v>
@@ -3716,25 +3727,25 @@
         <v>489</v>
       </c>
       <c r="G17" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H17">
         <v>2.3880482202868199E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J17" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="K17" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="L17" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M17" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3757,13 +3768,13 @@
         <v>490</v>
       </c>
       <c r="G18" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H18">
         <v>5.6813877765204079E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N18">
         <v>45.348790626357172</v>
@@ -3789,13 +3800,13 @@
         <v>491</v>
       </c>
       <c r="G19" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H19">
         <v>3.5041650666294832E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N19">
         <v>5.9086294416243659</v>
@@ -3821,13 +3832,13 @@
         <v>492</v>
       </c>
       <c r="G20" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H20">
         <v>1.93609637436668E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N20">
         <v>8.1624960248854244</v>
@@ -3853,13 +3864,13 @@
         <v>493</v>
       </c>
       <c r="G21" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H21">
         <v>3.4350184019065311E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N21">
         <v>9.0840830826413317</v>
@@ -3885,13 +3896,13 @@
         <v>494</v>
       </c>
       <c r="G22" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H22">
         <v>1.7742322626910782E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N22">
         <v>70.016004924592195</v>
@@ -3917,13 +3928,13 @@
         <v>495</v>
       </c>
       <c r="G23" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H23">
         <v>1.082152409886683E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N23">
         <v>23.466199838405601</v>
@@ -3949,13 +3960,13 @@
         <v>496</v>
       </c>
       <c r="G24" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H24">
         <v>1.473157330116515E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N24">
         <v>4.5086538461538463</v>
@@ -3981,13 +3992,13 @@
         <v>497</v>
       </c>
       <c r="G25" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H25">
         <v>1.0257610273847639E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N25">
         <v>12.937764889582869</v>
@@ -4013,57 +4024,57 @@
         <v>498</v>
       </c>
       <c r="G26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H26">
         <v>2.8334400887048639E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N26">
         <v>11.22443559096946</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D27" t="s">
-        <v>467</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G27" t="s">
-        <v>671</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.029709325632022E-2</v>
       </c>
-      <c r="I27" t="s">
-        <v>687</v>
-      </c>
-      <c r="J27" t="s">
-        <v>699</v>
-      </c>
-      <c r="K27" t="s">
-        <v>743</v>
-      </c>
-      <c r="L27" t="s">
-        <v>753</v>
-      </c>
-      <c r="M27" t="s">
-        <v>799</v>
+      <c r="I27" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -4086,13 +4097,13 @@
         <v>482</v>
       </c>
       <c r="G28" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H28">
         <v>6.5207543913478161E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N28">
         <v>103.5046196266136</v>
@@ -4115,16 +4126,16 @@
         <v>3.9550000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G29" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H29">
         <v>2.8610210566307752E-3</v>
       </c>
       <c r="M29" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N29">
         <v>16.254072150953611</v>
@@ -4147,16 +4158,16 @@
         <v>5.4749999999999996</v>
       </c>
       <c r="F30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H30">
         <v>3.1895217335304871E-3</v>
       </c>
       <c r="M30" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N30">
         <v>121.6593511108991</v>
@@ -4179,28 +4190,28 @@
         <v>5.835</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G31" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H31">
         <v>1.0197952771463851E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="J31" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="K31" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="L31" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M31" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="N31">
         <v>23.50465511246097</v>
@@ -4223,16 +4234,16 @@
         <v>4.4050000000000002</v>
       </c>
       <c r="F32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G32" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H32">
         <v>1.078712885234534E-3</v>
       </c>
       <c r="M32" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N32">
         <v>24.733742188828209</v>
@@ -4255,16 +4266,16 @@
         <v>5.835</v>
       </c>
       <c r="F33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G33" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H33">
         <v>8.464025787329521E-3</v>
       </c>
       <c r="M33" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N33">
         <v>4.8670776914830123</v>
@@ -4287,16 +4298,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G34" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H34">
         <v>6.4336379322613713E-3</v>
       </c>
       <c r="M34" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N34">
         <v>59.77785911520057</v>
@@ -4319,16 +4330,16 @@
         <v>5.9849999999999994</v>
       </c>
       <c r="F35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G35" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H35">
         <v>0.11860337956507951</v>
       </c>
       <c r="M35" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N35">
         <v>5.0972363829387399</v>
@@ -4351,16 +4362,16 @@
         <v>4.26</v>
       </c>
       <c r="F36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G36" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H36">
         <v>3.5308535822932807E-2</v>
       </c>
       <c r="M36" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N36">
         <v>14.568674855806281</v>
@@ -4383,16 +4394,16 @@
         <v>5.5299999999999994</v>
       </c>
       <c r="F37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G37" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H37">
         <v>6.7775226144713976E-3</v>
       </c>
       <c r="M37" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N37">
         <v>48.835394855977633</v>
@@ -4415,16 +4426,16 @@
         <v>5.6</v>
       </c>
       <c r="F38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G38" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H38">
         <v>3.9791560770674923E-2</v>
       </c>
       <c r="M38" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N38">
         <v>53.037253879891537</v>
@@ -4447,16 +4458,16 @@
         <v>4.53</v>
       </c>
       <c r="F39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G39" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H39">
         <v>2.5560336746535128E-3</v>
       </c>
       <c r="M39" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N39">
         <v>100.60927679684561</v>
@@ -4479,16 +4490,16 @@
         <v>5.1499999999999986</v>
       </c>
       <c r="F40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G40" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H40">
         <v>8.4809778177203921E-3</v>
       </c>
       <c r="M40" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N40">
         <v>216.31247181359109</v>
@@ -4511,16 +4522,16 @@
         <v>4.0550000000000006</v>
       </c>
       <c r="F41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G41" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H41">
         <v>5.7043103924432348E-3</v>
       </c>
       <c r="M41" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N41">
         <v>175.1622692400457</v>
@@ -4543,16 +4554,16 @@
         <v>5.25</v>
       </c>
       <c r="F42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G42" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H42">
         <v>9.1360410430283423E-3</v>
       </c>
       <c r="M42" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N42">
         <v>174.39863500241569</v>
@@ -4575,16 +4586,16 @@
         <v>6.4400000000000013</v>
       </c>
       <c r="F43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G43" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H43">
         <v>2.010917079655283E-2</v>
       </c>
       <c r="M43" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N43">
         <v>3.5522267206477731</v>
@@ -4607,16 +4618,16 @@
         <v>3.415</v>
       </c>
       <c r="F44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G44" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H44">
         <v>2.523525139933662E-2</v>
       </c>
       <c r="M44" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="N44">
         <v>6.8371212121212119</v>
@@ -4639,16 +4650,16 @@
         <v>2.2050000000000001</v>
       </c>
       <c r="F45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G45" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H45">
         <v>6.3753842313349907E-3</v>
       </c>
       <c r="M45" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N45">
         <v>5.9262587815334067</v>
@@ -4671,16 +4682,16 @@
         <v>4.5150000000000006</v>
       </c>
       <c r="F46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G46" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H46">
         <v>6.84886121202255E-3</v>
       </c>
       <c r="M46" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N46">
         <v>338.56158484065458</v>
@@ -4703,22 +4714,22 @@
         <v>4.16</v>
       </c>
       <c r="F47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G47" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H47">
         <v>1.013253763346755E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J47" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M47" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N47">
         <v>77.666515632079737</v>
@@ -4741,10 +4752,10 @@
         <v>4.51</v>
       </c>
       <c r="F48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G48" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H48">
         <v>8.7334173729887166E-3</v>
@@ -4753,10 +4764,10 @@
         <v>469</v>
       </c>
       <c r="L48" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="M48" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N48">
         <v>33.839235539496123</v>
@@ -4779,16 +4790,16 @@
         <v>5.25</v>
       </c>
       <c r="F49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G49" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H49">
         <v>2.095667614137775E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N49">
         <v>5.3978931499595673</v>
@@ -4811,16 +4822,16 @@
         <v>5.5500000000000007</v>
       </c>
       <c r="F50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G50" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H50">
         <v>1.1599627111057109E-2</v>
       </c>
       <c r="M50" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N50">
         <v>8.1192483552824797</v>
@@ -4843,16 +4854,16 @@
         <v>4.04</v>
       </c>
       <c r="F51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G51" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H51">
         <v>4.9306710885241864E-3</v>
       </c>
       <c r="M51" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N51">
         <v>50.486512058344147</v>
@@ -4875,16 +4886,16 @@
         <v>4.375</v>
       </c>
       <c r="F52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G52" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H52">
         <v>5.6093899165901018E-3</v>
       </c>
       <c r="M52" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N52">
         <v>3.3983265306122452</v>
@@ -4907,16 +4918,16 @@
         <v>4.3900000000000006</v>
       </c>
       <c r="F53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G53" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H53">
         <v>5.4179560388242232E-3</v>
       </c>
       <c r="M53" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N53">
         <v>21.368731563421829</v>
@@ -4939,16 +4950,16 @@
         <v>3.0249999999999999</v>
       </c>
       <c r="F54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H54">
         <v>8.2410290898358163E-3</v>
       </c>
       <c r="M54" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -4968,22 +4979,22 @@
         <v>5.03</v>
       </c>
       <c r="F55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G55" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H55">
         <v>8.1990893653157704E-3</v>
       </c>
       <c r="K55" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L55" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M55" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N55">
         <v>254.46976427233059</v>
@@ -5006,16 +5017,16 @@
         <v>3.0249999999999999</v>
       </c>
       <c r="F56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G56" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H56">
         <v>7.9084899307259038E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N56">
         <v>0.37037849698299508</v>
@@ -5038,16 +5049,16 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="F57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G57" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H57">
         <v>1.25221316856019E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N57">
         <v>11.701106240868301</v>
@@ -5070,16 +5081,16 @@
         <v>4.1550000000000002</v>
       </c>
       <c r="F58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G58" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H58">
         <v>3.036317705565339E-3</v>
       </c>
       <c r="M58" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N58">
         <v>8.6105675146771041</v>
@@ -5102,16 +5113,16 @@
         <v>6.6950000000000003</v>
       </c>
       <c r="F59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G59" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H59">
         <v>1.457630066901394E-2</v>
       </c>
       <c r="M59" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -5131,16 +5142,16 @@
         <v>5.96</v>
       </c>
       <c r="F60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H60">
         <v>9.5231558270214567E-3</v>
       </c>
       <c r="M60" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N60">
         <v>197.48842202117569</v>
@@ -5163,16 +5174,16 @@
         <v>1.7649999999999999</v>
       </c>
       <c r="F61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G61" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H61">
         <v>6.9075576012099793E-3</v>
       </c>
       <c r="M61" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -5192,16 +5203,16 @@
         <v>4.95</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H62">
         <v>8.5615315788579727E-3</v>
       </c>
       <c r="M62" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N62">
         <v>142.68824611014489</v>
@@ -5224,16 +5235,16 @@
         <v>4.83</v>
       </c>
       <c r="F63" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G63" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H63">
         <v>9.8271774121535538E-3</v>
       </c>
       <c r="M63" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N63">
         <v>40.18793408688547</v>
@@ -5256,22 +5267,22 @@
         <v>4.68</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G64" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H64">
         <v>7.7805640714357924E-3</v>
       </c>
       <c r="K64" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L64" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M64" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N64">
         <v>92.868124136852799</v>
@@ -5297,13 +5308,13 @@
         <v>495</v>
       </c>
       <c r="G65" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H65">
         <v>3.880309553446426E-3</v>
       </c>
       <c r="M65" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N65">
         <v>36.258074768582887</v>
@@ -5326,16 +5337,16 @@
         <v>6.0049999999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G66" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H66">
         <v>7.2624846625348738E-3</v>
       </c>
       <c r="M66" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N66">
         <v>191.81972588548851</v>
@@ -5358,16 +5369,16 @@
         <v>5.9</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G67" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H67">
         <v>4.7089096046077139E-2</v>
       </c>
       <c r="M67" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N67">
         <v>13.775862298819369</v>
@@ -5390,16 +5401,16 @@
         <v>6.9150000000000009</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G68" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H68">
         <v>1.2667262561260941E-2</v>
       </c>
       <c r="M68" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N68">
         <v>7.9509578544061306</v>
@@ -5410,7 +5421,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>902</v>
       </c>
       <c r="C69" t="s">
         <v>461</v>
@@ -5422,22 +5433,22 @@
         <v>4.8850000000000007</v>
       </c>
       <c r="F69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H69">
         <v>2.414206326922996E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M69" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N69">
         <v>27.896784648518452</v>
@@ -5460,22 +5471,22 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="F70" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G70" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H70">
         <v>2.414206326922996E-2</v>
       </c>
       <c r="I70" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M70" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -5495,22 +5506,22 @@
         <v>6.0549999999999997</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G71" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H71">
         <v>1.150893757918936E-2</v>
       </c>
       <c r="I71" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J71" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M71" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N71">
         <v>100.080076378101</v>
@@ -5533,16 +5544,16 @@
         <v>6.535000000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G72" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H72">
         <v>1.055918794504118E-2</v>
       </c>
       <c r="M72" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N72">
         <v>14.87300377381095</v>
@@ -5565,16 +5576,16 @@
         <v>7.31</v>
       </c>
       <c r="F73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G73" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H73">
         <v>1.860578864522788E-2</v>
       </c>
       <c r="M73" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N73">
         <v>239.90239891183381</v>
@@ -5600,13 +5611,13 @@
         <v>494</v>
       </c>
       <c r="G74" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H74">
         <v>1.488689205532479E-2</v>
       </c>
       <c r="M74" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N74">
         <v>106.3204339205295</v>
@@ -5632,13 +5643,13 @@
         <v>490</v>
       </c>
       <c r="G75" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H75">
         <v>4.4558917075995803E-2</v>
       </c>
       <c r="M75" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N75">
         <v>4.7786688051323178</v>
@@ -5661,16 +5672,16 @@
         <v>4.42</v>
       </c>
       <c r="F76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G76" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H76">
         <v>2.667895496658856E-2</v>
       </c>
       <c r="M76" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N76">
         <v>30.501692325707179</v>
@@ -5693,16 +5704,16 @@
         <v>3.87</v>
       </c>
       <c r="F77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G77" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H77">
         <v>4.497458003202226E-3</v>
       </c>
       <c r="M77" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N77">
         <v>40.302702702702703</v>
@@ -5725,16 +5736,16 @@
         <v>3.9350000000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G78" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H78">
         <v>4.336326611433905E-3</v>
       </c>
       <c r="M78" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N78">
         <v>80.87166789989945</v>
@@ -5757,16 +5768,16 @@
         <v>5.6550000000000002</v>
       </c>
       <c r="F79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G79" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H79">
         <v>2.2143841237098449E-2</v>
       </c>
       <c r="M79" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N79">
         <v>10.014983800057029</v>
@@ -5789,16 +5800,16 @@
         <v>3.02</v>
       </c>
       <c r="F80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G80" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H80">
         <v>3.6052753671544918E-4</v>
       </c>
       <c r="M80" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -5818,16 +5829,16 @@
         <v>6.63</v>
       </c>
       <c r="F81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G81" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H81">
         <v>3.0641298515157182E-2</v>
       </c>
       <c r="M81" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N81">
         <v>2.0988149779735679</v>
@@ -5850,16 +5861,16 @@
         <v>3.0249999999999999</v>
       </c>
       <c r="F82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G82" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H82">
         <v>6.3972125536879698E-3</v>
       </c>
       <c r="M82" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -5879,16 +5890,16 @@
         <v>5.9850000000000003</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G83" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H83">
         <v>5.7388841995582576E-3</v>
       </c>
       <c r="M83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N83">
         <v>115.5094339622642</v>
@@ -5911,62 +5922,62 @@
         <v>3.9</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G84" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H84">
         <v>5.6746320381582116E-3</v>
       </c>
       <c r="M84" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N84">
         <v>26.068570683060031</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D85" t="s">
-        <v>467</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E85" s="3">
         <v>5.7749999999999986</v>
       </c>
-      <c r="F85" t="s">
-        <v>551</v>
-      </c>
-      <c r="G85" t="s">
-        <v>675</v>
-      </c>
-      <c r="H85">
+      <c r="F85" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H85" s="3">
         <v>3.2993381698714463E-2</v>
       </c>
-      <c r="I85" t="s">
-        <v>688</v>
-      </c>
-      <c r="J85" t="s">
-        <v>702</v>
-      </c>
-      <c r="K85" t="s">
-        <v>742</v>
-      </c>
-      <c r="L85" t="s">
-        <v>758</v>
-      </c>
-      <c r="M85" t="s">
-        <v>800</v>
-      </c>
-      <c r="N85">
+      <c r="I85" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="N85" s="3">
         <v>20.668426531866039</v>
       </c>
     </row>
@@ -5987,16 +5998,16 @@
         <v>3.3450000000000002</v>
       </c>
       <c r="F86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G86" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H86">
         <v>1.7336648684441399E-2</v>
       </c>
       <c r="M86" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N86">
         <v>375.48031094437812</v>
@@ -6019,22 +6030,22 @@
         <v>6.74</v>
       </c>
       <c r="F87" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G87" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H87">
         <v>2.177772961433988E-2</v>
       </c>
       <c r="I87" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J87" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="M87" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="N87">
         <v>8.8652551522558838</v>
@@ -6057,16 +6068,16 @@
         <v>3.855</v>
       </c>
       <c r="F88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G88" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H88">
         <v>1.951966938240179E-3</v>
       </c>
       <c r="M88" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N88">
         <v>224.17967845888151</v>
@@ -6089,28 +6100,28 @@
         <v>4.2749999999999986</v>
       </c>
       <c r="F89" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G89" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H89">
         <v>4.5648898598571463E-3</v>
       </c>
       <c r="I89" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="J89" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="K89" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L89" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="M89" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -6130,104 +6141,104 @@
         <v>5.34</v>
       </c>
       <c r="F90" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G90" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H90">
         <v>2.124260938813904E-3</v>
       </c>
       <c r="M90" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N90">
         <v>7.2876269604681436</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D91" t="s">
-        <v>468</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E91" s="3">
         <v>3.8</v>
       </c>
-      <c r="F91" t="s">
-        <v>557</v>
-      </c>
-      <c r="G91" t="s">
-        <v>669</v>
-      </c>
-      <c r="H91">
+      <c r="F91" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H91" s="3">
         <v>2.134239332687848E-2</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N91" s="3">
+        <v>5.0093962523903208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1.9591867406005711E-2</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="J91" t="s">
-        <v>695</v>
-      </c>
-      <c r="K91" t="s">
-        <v>745</v>
-      </c>
-      <c r="L91" t="s">
-        <v>760</v>
-      </c>
-      <c r="M91" t="s">
-        <v>796</v>
-      </c>
-      <c r="N91">
-        <v>5.0093962523903208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" t="s">
-        <v>325</v>
-      </c>
-      <c r="C92" t="s">
-        <v>463</v>
-      </c>
-      <c r="D92" t="s">
-        <v>469</v>
-      </c>
-      <c r="E92">
-        <v>6.98</v>
-      </c>
-      <c r="F92" t="s">
-        <v>558</v>
-      </c>
-      <c r="G92" t="s">
-        <v>680</v>
-      </c>
-      <c r="H92">
-        <v>1.9591867406005711E-2</v>
-      </c>
-      <c r="I92" t="s">
-        <v>691</v>
-      </c>
-      <c r="J92" t="s">
-        <v>705</v>
-      </c>
-      <c r="K92" t="s">
-        <v>744</v>
-      </c>
-      <c r="L92" t="s">
-        <v>761</v>
-      </c>
-      <c r="M92" t="s">
-        <v>797</v>
+      <c r="J92" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -6247,16 +6258,16 @@
         <v>5.8849999999999998</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G93" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H93">
         <v>7.9044261480599731E-3</v>
       </c>
       <c r="M93" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N93">
         <v>64.248547453458102</v>
@@ -6279,16 +6290,16 @@
         <v>3.3650000000000002</v>
       </c>
       <c r="F94" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G94" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H94">
         <v>2.0601917079472339E-2</v>
       </c>
       <c r="M94" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N94">
         <v>120.5140171339045</v>
@@ -6311,16 +6322,16 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="F95" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G95" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H95">
         <v>8.8176493261500344E-3</v>
       </c>
       <c r="M95" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N95">
         <v>161.50656718755471</v>
@@ -6343,28 +6354,28 @@
         <v>5.5950000000000006</v>
       </c>
       <c r="F96" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G96" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H96">
         <v>8.7875057590977024E-3</v>
       </c>
       <c r="I96" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J96" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="K96" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L96" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="M96" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -6384,16 +6395,16 @@
         <v>3.12</v>
       </c>
       <c r="F97" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G97" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H97">
         <v>3.6315573681423241E-2</v>
       </c>
       <c r="M97" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N97">
         <v>78.092979119979915</v>
@@ -6416,16 +6427,16 @@
         <v>5.2150000000000007</v>
       </c>
       <c r="F98" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G98" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H98">
         <v>3.8442151865092371E-3</v>
       </c>
       <c r="M98" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N98">
         <v>63.640078760634538</v>
@@ -6448,16 +6459,16 @@
         <v>2.9</v>
       </c>
       <c r="F99" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G99" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H99">
         <v>2.646587157983538E-2</v>
       </c>
       <c r="M99" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -6477,16 +6488,16 @@
         <v>5.49</v>
       </c>
       <c r="F100" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G100" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H100">
         <v>1.9537125619693559E-2</v>
       </c>
       <c r="M100" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N100">
         <v>3.918868988228426</v>
@@ -6509,28 +6520,28 @@
         <v>5.3299999999999992</v>
       </c>
       <c r="F101" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G101" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H101">
         <v>1.0582353750681509E-2</v>
       </c>
       <c r="I101" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J101" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K101" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="L101" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="M101" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -6553,71 +6564,71 @@
         <v>488</v>
       </c>
       <c r="G102" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H102">
         <v>2.164827418504911E-2</v>
       </c>
       <c r="I102" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J102" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K102" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L102" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="M102" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N102">
         <v>4.0382211109126631</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D103" t="s">
-        <v>466</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E103" s="3">
         <v>4.8199999999999994</v>
       </c>
-      <c r="F103" t="s">
-        <v>568</v>
-      </c>
-      <c r="G103" t="s">
-        <v>679</v>
-      </c>
-      <c r="H103">
+      <c r="F103" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H103" s="3">
         <v>3.6692801438992777E-2</v>
       </c>
-      <c r="I103" t="s">
-        <v>692</v>
-      </c>
-      <c r="J103" t="s">
-        <v>709</v>
-      </c>
-      <c r="K103" t="s">
-        <v>746</v>
-      </c>
-      <c r="L103" t="s">
-        <v>765</v>
-      </c>
-      <c r="M103" t="s">
-        <v>796</v>
-      </c>
-      <c r="N103">
+      <c r="I103" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N103" s="3">
         <v>309.86495889017522</v>
       </c>
     </row>
@@ -6632,34 +6643,34 @@
         <v>463</v>
       </c>
       <c r="D104" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E104">
         <v>4.4700000000000006</v>
       </c>
       <c r="F104" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G104" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H104">
         <v>7.9090278436434125E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J104" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K104" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L104" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M104" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N104">
         <v>17.215632062410108</v>
@@ -6682,16 +6693,16 @@
         <v>7.0949999999999998</v>
       </c>
       <c r="F105" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G105" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H105">
         <v>3.7206055398077531E-2</v>
       </c>
       <c r="M105" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="N105">
         <v>2.052778575262463</v>
@@ -6714,16 +6725,16 @@
         <v>6.8150000000000004</v>
       </c>
       <c r="F106" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G106" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H106">
         <v>2.3179077474236639E-2</v>
       </c>
       <c r="M106" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N106">
         <v>19.034643154758349</v>
@@ -6746,16 +6757,16 @@
         <v>3.91</v>
       </c>
       <c r="F107" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G107" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H107">
         <v>5.497924562629708E-2</v>
       </c>
       <c r="M107" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N107">
         <v>16.20802467286984</v>
@@ -6778,16 +6789,16 @@
         <v>4.5150000000000006</v>
       </c>
       <c r="F108" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G108" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H108">
         <v>3.7101367384834598E-2</v>
       </c>
       <c r="M108" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N108">
         <v>15.703555267927481</v>
@@ -6810,56 +6821,56 @@
         <v>4.625</v>
       </c>
       <c r="F109" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G109" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H109">
         <v>2.3893207223031121E-2</v>
       </c>
       <c r="M109" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N109">
         <v>16.729228161376518</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>464</v>
       </c>
       <c r="D110" t="s">
-        <v>466</v>
-      </c>
-      <c r="E110">
+        <v>467</v>
+      </c>
+      <c r="E110" s="3">
         <v>4.95</v>
       </c>
       <c r="F110" t="s">
-        <v>531</v>
-      </c>
-      <c r="G110" t="s">
-        <v>671</v>
-      </c>
-      <c r="H110">
+        <v>571</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H110" s="3">
         <v>1.0190190235986109E-2</v>
       </c>
-      <c r="I110" t="s">
-        <v>685</v>
-      </c>
-      <c r="J110" t="s">
-        <v>711</v>
-      </c>
-      <c r="M110" t="s">
-        <v>796</v>
-      </c>
-      <c r="N110">
+      <c r="I110" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N110" s="3">
         <v>15.35672628127967</v>
       </c>
     </row>
@@ -6880,16 +6891,16 @@
         <v>4.68</v>
       </c>
       <c r="F111" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G111" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H111">
         <v>6.9295662619178744E-3</v>
       </c>
       <c r="M111" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N111">
         <v>5.1676897667246733</v>
@@ -6912,22 +6923,22 @@
         <v>5.6700000000000008</v>
       </c>
       <c r="F112" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G112" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H112">
         <v>3.058787632284032E-2</v>
       </c>
       <c r="I112" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J112" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M112" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N112">
         <v>20.293011096480569</v>
@@ -6950,22 +6961,22 @@
         <v>6.2950000000000008</v>
       </c>
       <c r="F113" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G113" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H113">
         <v>5.8532773532498417E-2</v>
       </c>
       <c r="I113" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J113" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M113" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -6985,16 +6996,16 @@
         <v>4.8449999999999998</v>
       </c>
       <c r="F114" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G114" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H114">
         <v>2.1515458275715771E-2</v>
       </c>
       <c r="M114" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N114">
         <v>62.244882568024671</v>
@@ -7017,16 +7028,16 @@
         <v>3.47</v>
       </c>
       <c r="F115" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G115" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H115">
         <v>1.6621547138901741E-2</v>
       </c>
       <c r="M115" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -7046,22 +7057,22 @@
         <v>4.24</v>
       </c>
       <c r="F116" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G116" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H116">
         <v>2.1808216596250211E-2</v>
       </c>
       <c r="I116" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J116" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M116" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="N116">
         <v>1.490844599500307</v>
@@ -7084,22 +7095,22 @@
         <v>4.68</v>
       </c>
       <c r="F117" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G117" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H117">
         <v>9.0196762542632536E-3</v>
       </c>
       <c r="K117" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="L117" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M117" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="N117">
         <v>6.5142123186977408</v>
@@ -7122,22 +7133,22 @@
         <v>5.23</v>
       </c>
       <c r="F118" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G118" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H118">
         <v>3.0643431868108362E-2</v>
       </c>
       <c r="I118" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J118" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M118" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N118">
         <v>7.6918985625743899</v>
@@ -7160,16 +7171,16 @@
         <v>4.8449999999999998</v>
       </c>
       <c r="F119" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G119" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H119">
         <v>1.7518627378068089E-2</v>
       </c>
       <c r="M119" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N119">
         <v>65.707176699369441</v>
@@ -7192,16 +7203,16 @@
         <v>3.91</v>
       </c>
       <c r="F120" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G120" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H120">
         <v>4.498042322034379E-2</v>
       </c>
       <c r="M120" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N120">
         <v>4.3881016279787852</v>
@@ -7224,16 +7235,16 @@
         <v>6.3500000000000014</v>
       </c>
       <c r="F121" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G121" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H121">
         <v>4.2465406203560978E-2</v>
       </c>
       <c r="M121" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -7253,16 +7264,16 @@
         <v>4.955000000000001</v>
       </c>
       <c r="F122" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G122" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H122">
         <v>1.27188241216597E-2</v>
       </c>
       <c r="M122" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -7282,16 +7293,16 @@
         <v>4.2949999999999999</v>
       </c>
       <c r="F123" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G123" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H123">
         <v>1.6637545438870301E-2</v>
       </c>
       <c r="M123" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N123">
         <v>15.43842520124719</v>
@@ -7314,16 +7325,16 @@
         <v>5.12</v>
       </c>
       <c r="F124" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G124" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H124">
         <v>1.154953977296147E-2</v>
       </c>
       <c r="M124" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="N124">
         <v>21.161394049796609</v>
@@ -7346,16 +7357,16 @@
         <v>5.2050000000000001</v>
       </c>
       <c r="F125" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G125" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H125">
         <v>2.6887772299916679E-2</v>
       </c>
       <c r="M125" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -7375,34 +7386,34 @@
         <v>3.6949999999999998</v>
       </c>
       <c r="F126" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G126" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H126">
         <v>2.9523236071060671E-4</v>
       </c>
       <c r="I126" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J126" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K126" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="L126" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M126" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N126">
         <v>5.014098588464905</v>
       </c>
       <c r="O126" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -7422,22 +7433,22 @@
         <v>3.6349999999999998</v>
       </c>
       <c r="F127" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G127" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H127">
         <v>1.0981617456657039E-2</v>
       </c>
       <c r="M127" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N127">
         <v>25.31028861852181</v>
       </c>
       <c r="O127" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -7457,22 +7468,22 @@
         <v>7.3650000000000011</v>
       </c>
       <c r="F128" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G128" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H128">
         <v>2.8911586733991631E-2</v>
       </c>
       <c r="M128" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N128">
         <v>5.5200431685104636</v>
       </c>
       <c r="O128" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -7492,22 +7503,22 @@
         <v>5.98</v>
       </c>
       <c r="F129" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G129" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H129">
         <v>3.233223642351879E-2</v>
       </c>
       <c r="M129" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N129">
         <v>26.251365213040899</v>
       </c>
       <c r="O129" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -7527,22 +7538,22 @@
         <v>7.6950000000000003</v>
       </c>
       <c r="F130" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G130" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H130">
         <v>5.2676029773904953E-2</v>
       </c>
       <c r="M130" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N130">
         <v>3.4249792688889822</v>
       </c>
       <c r="O130" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -7562,22 +7573,22 @@
         <v>6.78</v>
       </c>
       <c r="F131" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G131" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H131">
         <v>6.1713477934957073E-3</v>
       </c>
       <c r="M131" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N131">
         <v>12.368952999999999</v>
       </c>
       <c r="O131" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -7597,34 +7608,34 @@
         <v>7.21</v>
       </c>
       <c r="F132" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G132" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H132">
         <v>0.12407170760026751</v>
       </c>
       <c r="I132" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="J132" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K132" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="L132" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="M132" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N132">
         <v>-16.87045651817866</v>
       </c>
       <c r="O132" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -7644,34 +7655,34 @@
         <v>4.79</v>
       </c>
       <c r="F133" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G133" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H133">
         <v>1.4089713379440981E-2</v>
       </c>
       <c r="I133" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J133" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K133" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L133" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="M133" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N133">
         <v>3.6122971997288489</v>
       </c>
       <c r="O133" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -7691,28 +7702,28 @@
         <v>5.25</v>
       </c>
       <c r="F134" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G134" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H134">
         <v>6.0939548568601509E-3</v>
       </c>
       <c r="K134" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L134" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M134" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N134">
         <v>59.347930470395283</v>
       </c>
       <c r="O134" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -7732,28 +7743,28 @@
         <v>5.35</v>
       </c>
       <c r="F135" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G135" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H135">
         <v>7.5237865552870709E-3</v>
       </c>
       <c r="K135" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L135" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M135" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N135">
         <v>15.145637172380701</v>
       </c>
       <c r="O135" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -7773,28 +7784,28 @@
         <v>5.35</v>
       </c>
       <c r="F136" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H136">
         <v>7.5237865552870709E-3</v>
       </c>
       <c r="K136" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L136" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M136" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N136">
         <v>15.145637172380701</v>
       </c>
       <c r="O136" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -7814,22 +7825,22 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="F137" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G137" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H137">
         <v>7.8743064033682825E-3</v>
       </c>
       <c r="M137" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N137">
         <v>4.9656773311532207</v>
       </c>
       <c r="O137" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -7849,28 +7860,28 @@
         <v>7.4700000000000024</v>
       </c>
       <c r="F138" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G138" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H138">
         <v>0.1138366487102644</v>
       </c>
       <c r="K138" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L138" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="M138" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N138">
         <v>0.29716908288233151</v>
       </c>
       <c r="O138" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -7890,22 +7901,22 @@
         <v>7.9499999999999993</v>
       </c>
       <c r="F139" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G139" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H139">
         <v>0.22505148808082431</v>
       </c>
       <c r="M139" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N139">
         <v>36.410402369733191</v>
       </c>
       <c r="O139" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -7925,28 +7936,28 @@
         <v>5.5049999999999999</v>
       </c>
       <c r="F140" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G140" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H140">
         <v>1.944943026880297E-2</v>
       </c>
       <c r="K140" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L140" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M140" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N140">
         <v>12.87535841273176</v>
       </c>
       <c r="O140" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -7966,22 +7977,22 @@
         <v>3.49</v>
       </c>
       <c r="F141" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G141" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H141">
         <v>2.0158467354505221E-3</v>
       </c>
       <c r="M141" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N141">
         <v>19.92899150160568</v>
       </c>
       <c r="O141" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -8001,34 +8012,34 @@
         <v>8.4450000000000003</v>
       </c>
       <c r="F142" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G142" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H142">
         <v>3.7098990795031088E-2</v>
       </c>
       <c r="I142" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J142" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K142" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L142" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M142" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N142">
         <v>8.8901045862660322</v>
       </c>
       <c r="O142" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -8048,34 +8059,34 @@
         <v>8.61</v>
       </c>
       <c r="F143" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G143" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H143">
         <v>0.1210805092505589</v>
       </c>
       <c r="I143" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J143" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="K143" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L143" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="M143" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N143">
         <v>5.0074773038443174</v>
       </c>
       <c r="O143" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -8095,22 +8106,22 @@
         <v>6.03</v>
       </c>
       <c r="F144" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G144" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H144">
         <v>1.140718045452516E-2</v>
       </c>
       <c r="M144" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N144">
         <v>6.1788086446778321</v>
       </c>
       <c r="O144" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -8130,28 +8141,28 @@
         <v>4.95</v>
       </c>
       <c r="F145" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G145" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H145">
         <v>2.7186251665507921E-2</v>
       </c>
       <c r="I145" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J145" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="M145" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N145">
         <v>4.5525639836333074</v>
       </c>
       <c r="O145" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -8171,34 +8182,34 @@
         <v>4.9849999999999994</v>
       </c>
       <c r="F146" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G146" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H146">
         <v>7.0313810968569701E-3</v>
       </c>
       <c r="I146" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J146" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K146" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L146" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="M146" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N146">
         <v>11.20152705919128</v>
       </c>
       <c r="O146" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -8218,22 +8229,22 @@
         <v>4.7450000000000001</v>
       </c>
       <c r="F147" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G147" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H147">
         <v>1.189994908639902E-2</v>
       </c>
       <c r="M147" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N147">
         <v>1.950416795747268</v>
       </c>
       <c r="O147" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -8253,22 +8264,22 @@
         <v>7.629999999999999</v>
       </c>
       <c r="F148" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G148" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H148">
         <v>8.2663689897754966E-2</v>
       </c>
       <c r="M148" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N148">
         <v>6.2008531312838979</v>
       </c>
       <c r="O148" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -8288,22 +8299,22 @@
         <v>5.5949999999999998</v>
       </c>
       <c r="F149" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G149" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H149">
         <v>6.5915122232101941E-3</v>
       </c>
       <c r="M149" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N149">
         <v>16.38480646687723</v>
       </c>
       <c r="O149" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -8323,22 +8334,22 @@
         <v>6.25</v>
       </c>
       <c r="F150" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G150" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H150">
         <v>9.2310490147247126E-3</v>
       </c>
       <c r="M150" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N150">
         <v>8.0079348893528177</v>
       </c>
       <c r="O150" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -8358,22 +8369,22 @@
         <v>8.370000000000001</v>
       </c>
       <c r="F151" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G151" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H151">
         <v>4.6396846902965971E-2</v>
       </c>
       <c r="M151" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N151">
         <v>9.1154251985540178</v>
       </c>
       <c r="O151" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -8393,34 +8404,34 @@
         <v>7.6950000000000003</v>
       </c>
       <c r="F152" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G152" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H152">
         <v>3.4276256028153762E-2</v>
       </c>
       <c r="I152" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J152" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="K152" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L152" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M152" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N152">
         <v>9.8963814758860025</v>
       </c>
       <c r="O152" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -8440,22 +8451,22 @@
         <v>5.4550000000000001</v>
       </c>
       <c r="F153" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G153" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H153">
         <v>6.0939548568601509E-3</v>
       </c>
       <c r="M153" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N153">
         <v>19.97416800947305</v>
       </c>
       <c r="O153" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -8475,34 +8486,34 @@
         <v>7.5900000000000007</v>
       </c>
       <c r="F154" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G154" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H154">
         <v>3.0069782884972421E-2</v>
       </c>
       <c r="I154" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J154" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K154" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L154" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="M154" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N154">
         <v>13.19716075892774</v>
       </c>
       <c r="O154" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -8522,22 +8533,22 @@
         <v>8.76</v>
       </c>
       <c r="F155" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G155" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H155">
         <v>0.16458853071275739</v>
       </c>
       <c r="M155" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N155">
         <v>1.1567331228214861</v>
       </c>
       <c r="O155" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -8557,28 +8568,28 @@
         <v>6.9549999999999992</v>
       </c>
       <c r="F156" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G156" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H156">
         <v>4.7074139087662892E-2</v>
       </c>
       <c r="K156" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L156" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="M156" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N156">
         <v>20.511897173004449</v>
       </c>
       <c r="O156" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -8598,22 +8609,22 @@
         <v>6.16</v>
       </c>
       <c r="F157" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G157" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H157">
         <v>3.6222659514296707E-2</v>
       </c>
       <c r="M157" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N157">
         <v>11.31139812518486</v>
       </c>
       <c r="O157" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -8633,22 +8644,22 @@
         <v>7.23</v>
       </c>
       <c r="F158" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G158" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H158">
         <v>5.5558395434852748E-2</v>
       </c>
       <c r="M158" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N158">
         <v>7.9238685775519651</v>
       </c>
       <c r="O158" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -8668,28 +8679,28 @@
         <v>6.1950000000000012</v>
       </c>
       <c r="F159" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G159" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H159">
         <v>5.2707413293118337E-2</v>
       </c>
       <c r="I159" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J159" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="M159" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N159">
         <v>3.9360299796257219</v>
       </c>
       <c r="O159" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -8709,22 +8720,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F160" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G160" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H160">
         <v>3.6635277963398272E-3</v>
       </c>
       <c r="M160" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N160">
         <v>10.862200861071351</v>
       </c>
       <c r="O160" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -8744,34 +8755,34 @@
         <v>5.6650000000000009</v>
       </c>
       <c r="F161" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G161" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H161">
         <v>6.0939548568601509E-3</v>
       </c>
       <c r="I161" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J161" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K161" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L161" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="M161" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N161">
         <v>49.916009936058302</v>
       </c>
       <c r="O161" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -8791,34 +8802,34 @@
         <v>5.6650000000000009</v>
       </c>
       <c r="F162" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G162" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H162">
         <v>6.0939548568601509E-3</v>
       </c>
       <c r="I162" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J162" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K162" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L162" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="M162" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N162">
         <v>49.916009936058302</v>
       </c>
       <c r="O162" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -8838,34 +8849,34 @@
         <v>7.6950000000000012</v>
       </c>
       <c r="F163" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G163" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H163">
         <v>1.69902976163443E-2</v>
       </c>
       <c r="I163" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J163" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="K163" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L163" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M163" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N163">
         <v>18.363335161910779</v>
       </c>
       <c r="O163" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -8885,22 +8896,22 @@
         <v>6.5700000000000012</v>
       </c>
       <c r="F164" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G164" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H164">
         <v>2.332487579249487E-2</v>
       </c>
       <c r="M164" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N164">
         <v>7.8065006520618301</v>
       </c>
       <c r="O164" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -8920,28 +8931,28 @@
         <v>6.63</v>
       </c>
       <c r="F165" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G165" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H165">
         <v>2.7290044495610791E-2</v>
       </c>
       <c r="K165" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L165" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M165" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N165">
         <v>5.8368850710298759</v>
       </c>
       <c r="O165" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -8964,19 +8975,19 @@
         <v>493</v>
       </c>
       <c r="G166" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H166">
         <v>1.5226171764411321E-2</v>
       </c>
       <c r="M166" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N166">
         <v>18.388189584177471</v>
       </c>
       <c r="O166" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -8996,22 +9007,22 @@
         <v>6.45</v>
       </c>
       <c r="F167" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G167" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H167">
         <v>6.3992474717525671E-2</v>
       </c>
       <c r="M167" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N167">
         <v>21.298851699288271</v>
       </c>
       <c r="O167" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -9031,22 +9042,22 @@
         <v>6.6050000000000004</v>
       </c>
       <c r="F168" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G168" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H168">
         <v>9.9810079434856647E-3</v>
       </c>
       <c r="M168" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N168">
         <v>9.3267324615655429</v>
       </c>
       <c r="O168" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -9066,34 +9077,34 @@
         <v>4.66</v>
       </c>
       <c r="F169" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G169" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H169">
         <v>6.9047554259528132E-3</v>
       </c>
       <c r="I169" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J169" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="K169" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L169" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M169" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N169">
         <v>28.041343596188259</v>
       </c>
       <c r="O169" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -9113,22 +9124,22 @@
         <v>5.69</v>
       </c>
       <c r="F170" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G170" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H170">
         <v>2.010997175129503E-2</v>
       </c>
       <c r="M170" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N170">
         <v>3.9259759678402801</v>
       </c>
       <c r="O170" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -9148,22 +9159,22 @@
         <v>3.895</v>
       </c>
       <c r="F171" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G171" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H171">
         <v>1.4414973000445809E-2</v>
       </c>
       <c r="M171" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N171">
         <v>16.230201220017548</v>
       </c>
       <c r="O171" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -9183,22 +9194,22 @@
         <v>7.495000000000001</v>
       </c>
       <c r="F172" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G172" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H172">
         <v>5.5033318416966681E-2</v>
       </c>
       <c r="M172" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N172">
         <v>6.5498983615509543</v>
       </c>
       <c r="O172" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -9218,28 +9229,28 @@
         <v>5.3150000000000004</v>
       </c>
       <c r="F173" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G173" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H173">
         <v>1.3227608169025349E-2</v>
       </c>
       <c r="K173" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L173" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="M173" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N173">
         <v>18.176598412674242</v>
       </c>
       <c r="O173" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -9259,19 +9270,19 @@
         <v>5.12</v>
       </c>
       <c r="F174" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G174" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H174">
         <v>8.8542211922201242E-3</v>
       </c>
       <c r="M174" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="O174" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -9291,28 +9302,28 @@
         <v>5.1349999999999998</v>
       </c>
       <c r="F175" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G175" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H175">
         <v>6.0939548568601509E-3</v>
       </c>
       <c r="K175" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L175" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="M175" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N175">
         <v>50.945343606952669</v>
       </c>
       <c r="O175" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -9332,22 +9343,22 @@
         <v>4.835</v>
       </c>
       <c r="F176" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G176" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H176">
         <v>6.8292313567500651E-3</v>
       </c>
       <c r="M176" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N176">
         <v>8.0316421208061826</v>
       </c>
       <c r="O176" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -9367,28 +9378,28 @@
         <v>5.25</v>
       </c>
       <c r="F177" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G177" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H177">
         <v>6.1388063471808918E-3</v>
       </c>
       <c r="K177" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L177" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="M177" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N177">
         <v>19.398495023736849</v>
       </c>
       <c r="O177" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -9408,34 +9419,34 @@
         <v>8.2949999999999999</v>
       </c>
       <c r="F178" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G178" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H178">
         <v>3.815983482509544E-2</v>
       </c>
       <c r="I178" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J178" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="K178" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L178" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="M178" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N178">
         <v>19.544122926246651</v>
       </c>
       <c r="O178" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -9455,31 +9466,31 @@
         <v>6.63</v>
       </c>
       <c r="F179" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G179" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H179">
         <v>1.1804507526521849E-2</v>
       </c>
       <c r="I179" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J179" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K179" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L179" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="M179" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="O179" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -9499,22 +9510,22 @@
         <v>6.3</v>
       </c>
       <c r="F180" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G180" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H180">
         <v>2.4755591834579319E-2</v>
       </c>
       <c r="M180" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N180">
         <v>10.63236412122405</v>
       </c>
       <c r="O180" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -9534,22 +9545,22 @@
         <v>4.6099999999999994</v>
       </c>
       <c r="F181" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G181" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H181">
         <v>9.5390887039266126E-3</v>
       </c>
       <c r="M181" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N181">
         <v>4.8888406053166387</v>
       </c>
       <c r="O181" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -9569,22 +9580,22 @@
         <v>5.6750000000000007</v>
       </c>
       <c r="F182" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G182" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H182">
         <v>7.5473231636804528E-3</v>
       </c>
       <c r="M182" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N182">
         <v>22.61115441860742</v>
       </c>
       <c r="O182" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -9604,22 +9615,22 @@
         <v>8.61</v>
       </c>
       <c r="F183" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G183" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H183">
         <v>0.106674921532078</v>
       </c>
       <c r="M183" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N183">
         <v>1.427174617278776</v>
       </c>
       <c r="O183" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -9639,34 +9650,34 @@
         <v>7.83</v>
       </c>
       <c r="F184" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G184" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H184">
         <v>0.10163733556465</v>
       </c>
       <c r="I184" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J184" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="K184" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L184" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M184" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N184">
         <v>7.0494021372391504</v>
       </c>
       <c r="O184" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -9686,34 +9697,34 @@
         <v>8.370000000000001</v>
       </c>
       <c r="F185" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G185" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H185">
         <v>2.244678009660173E-2</v>
       </c>
       <c r="I185" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J185" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K185" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L185" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="M185" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N185">
         <v>8.213385638579016</v>
       </c>
       <c r="O185" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -9733,22 +9744,22 @@
         <v>8.76</v>
       </c>
       <c r="F186" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G186" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H186">
         <v>0.17755401315946101</v>
       </c>
       <c r="M186" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N186">
         <v>12.00305176432906</v>
       </c>
       <c r="O186" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -9768,28 +9779,28 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F187" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G187" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H187">
         <v>4.6189452651537177E-3</v>
       </c>
       <c r="K187" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L187" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="M187" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N187">
         <v>11.91297959504708</v>
       </c>
       <c r="O187" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -9809,34 +9820,34 @@
         <v>5.9949999999999992</v>
       </c>
       <c r="F188" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G188" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H188">
         <v>3.7766225027528022E-2</v>
       </c>
       <c r="I188" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J188" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K188" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L188" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="M188" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N188">
         <v>16.73366827277269</v>
       </c>
       <c r="O188" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -9856,22 +9867,22 @@
         <v>8.6849999999999987</v>
       </c>
       <c r="F189" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G189" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H189">
         <v>0.18675763167565981</v>
       </c>
       <c r="M189" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N189">
         <v>17.47172928264791</v>
       </c>
       <c r="O189" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -9891,34 +9902,34 @@
         <v>4.4450000000000003</v>
       </c>
       <c r="F190" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G190" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H190">
         <v>1.6671999682116859E-2</v>
       </c>
       <c r="I190" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J190" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K190" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L190" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M190" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N190">
         <v>29.40007453758647</v>
       </c>
       <c r="O190" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -9938,34 +9949,34 @@
         <v>4.4450000000000003</v>
       </c>
       <c r="F191" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G191" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H191">
         <v>1.6671999682116859E-2</v>
       </c>
       <c r="I191" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J191" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K191" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L191" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M191" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N191">
         <v>29.40007453758647</v>
       </c>
       <c r="O191" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -9985,22 +9996,22 @@
         <v>7.2949999999999999</v>
       </c>
       <c r="F192" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G192" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H192">
         <v>5.7922426925110737E-2</v>
       </c>
       <c r="M192" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N192">
         <v>4.0130684418969977</v>
       </c>
       <c r="O192" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -10020,22 +10031,22 @@
         <v>6.3650000000000011</v>
       </c>
       <c r="F193" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G193" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H193">
         <v>1.1994581639020899E-2</v>
       </c>
       <c r="M193" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N193">
         <v>3.1382678446304011</v>
       </c>
       <c r="O193" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -10055,34 +10066,34 @@
         <v>3.98</v>
       </c>
       <c r="F194" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G194" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H194">
         <v>9.9610088547025244E-3</v>
       </c>
       <c r="I194" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J194" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K194" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L194" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="M194" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N194">
         <v>16.63008694530853</v>
       </c>
       <c r="O194" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -10102,22 +10113,22 @@
         <v>4.2</v>
       </c>
       <c r="F195" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G195" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H195">
         <v>1.3522730624980659E-2</v>
       </c>
       <c r="M195" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N195">
         <v>18.4964943914031</v>
       </c>
       <c r="O195" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -10137,22 +10148,22 @@
         <v>6.57</v>
       </c>
       <c r="F196" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G196" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H196">
         <v>4.4685984223284958E-3</v>
       </c>
       <c r="M196" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N196">
         <v>3.4741380603964429</v>
       </c>
       <c r="O196" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -10172,28 +10183,28 @@
         <v>6.1050000000000004</v>
       </c>
       <c r="F197" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G197" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H197">
         <v>1.3311892645238689E-2</v>
       </c>
       <c r="K197" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L197" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M197" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N197">
         <v>8.4732743460844269</v>
       </c>
       <c r="O197" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -10213,34 +10224,34 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="F198" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G198" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H198">
         <v>5.7368272600452408E-2</v>
       </c>
       <c r="I198" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J198" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K198" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="L198" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M198" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N198">
         <v>2.1707942775834539</v>
       </c>
       <c r="O198" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -10260,28 +10271,28 @@
         <v>7.32</v>
       </c>
       <c r="F199" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G199" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H199">
         <v>4.1210959302440897E-2</v>
       </c>
       <c r="K199" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L199" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="M199" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N199">
         <v>9.9971786210110221</v>
       </c>
       <c r="O199" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -10301,22 +10312,22 @@
         <v>3.99</v>
       </c>
       <c r="F200" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G200" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H200">
         <v>1.589292309459445E-2</v>
       </c>
       <c r="M200" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N200">
         <v>15.413497216918319</v>
       </c>
       <c r="O200" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -10336,34 +10347,34 @@
         <v>6.63</v>
       </c>
       <c r="F201" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G201" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H201">
         <v>4.9407685038829967E-2</v>
       </c>
       <c r="I201" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J201" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K201" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L201" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M201" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N201">
         <v>24.006926561439659</v>
       </c>
       <c r="O201" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -10383,28 +10394,28 @@
         <v>6.7950000000000008</v>
       </c>
       <c r="F202" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G202" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H202">
         <v>6.2449617610366492E-2</v>
       </c>
       <c r="K202" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="L202" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="M202" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N202">
         <v>22.88659153997617</v>
       </c>
       <c r="O202" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -10424,25 +10435,25 @@
         <v>6.15</v>
       </c>
       <c r="F203" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G203" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H203">
         <v>6.997547842168883E-3</v>
       </c>
       <c r="K203" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L203" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M203" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="O203" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -10462,28 +10473,28 @@
         <v>5.53</v>
       </c>
       <c r="F204" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G204" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H204">
         <v>6.9703541363430599E-3</v>
       </c>
       <c r="K204" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L204" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M204" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N204">
         <v>43.682435842049273</v>
       </c>
       <c r="O204" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -10503,22 +10514,22 @@
         <v>6.2249999999999996</v>
       </c>
       <c r="F205" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G205" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H205">
         <v>1.676248800182778E-2</v>
       </c>
       <c r="M205" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N205">
         <v>11.1941540803211</v>
       </c>
       <c r="O205" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -10538,22 +10549,22 @@
         <v>6.63</v>
       </c>
       <c r="F206" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G206" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H206">
         <v>3.5745868985781248E-2</v>
       </c>
       <c r="M206" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N206">
         <v>8.6453367406253427</v>
       </c>
       <c r="O206" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -10573,28 +10584,28 @@
         <v>5.5350000000000001</v>
       </c>
       <c r="F207" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G207" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H207">
         <v>2.2729890465794989E-2</v>
       </c>
       <c r="K207" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L207" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="M207" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N207">
         <v>18.303256052011829</v>
       </c>
       <c r="O207" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -10614,22 +10625,22 @@
         <v>6.9249999999999998</v>
       </c>
       <c r="F208" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G208" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H208">
         <v>0.1170759720923024</v>
       </c>
       <c r="M208" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N208">
         <v>7.3775793321451486</v>
       </c>
       <c r="O208" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -10649,22 +10660,22 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="F209" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G209" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H209">
         <v>7.2603009189429191E-3</v>
       </c>
       <c r="M209" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N209">
         <v>2.5675498912151151</v>
       </c>
       <c r="O209" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -10684,34 +10695,34 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F210" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G210" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H210">
         <v>8.6907185569027323E-3</v>
       </c>
       <c r="I210" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J210" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K210" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L210" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="M210" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N210">
         <v>34.662969832951319</v>
       </c>
       <c r="O210" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -10731,28 +10742,28 @@
         <v>5.6700000000000008</v>
       </c>
       <c r="F211" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G211" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H211">
         <v>2.794734906783392E-3</v>
       </c>
       <c r="K211" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L211" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M211" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N211">
         <v>19.388479511199151</v>
       </c>
       <c r="O211" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -10772,22 +10783,22 @@
         <v>8.6849999999999987</v>
       </c>
       <c r="F212" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G212" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H212">
         <v>6.7079373757568228E-2</v>
       </c>
       <c r="M212" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N212">
         <v>6.9826636554178112</v>
       </c>
       <c r="O212" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -10807,22 +10818,22 @@
         <v>5.2</v>
       </c>
       <c r="F213" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G213" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H213">
         <v>4.0233359463087703E-3</v>
       </c>
       <c r="M213" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N213">
         <v>10.747727985131689</v>
       </c>
       <c r="O213" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -10842,22 +10853,22 @@
         <v>5.5549999999999997</v>
       </c>
       <c r="F214" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G214" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H214">
         <v>5.4274762564844306E-3</v>
       </c>
       <c r="M214" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N214">
         <v>7.8180273056516487</v>
       </c>
       <c r="O214" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -10877,22 +10888,22 @@
         <v>3.69</v>
       </c>
       <c r="F215" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G215" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H215">
         <v>4.7994219909452962E-3</v>
       </c>
       <c r="M215" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N215">
         <v>26.37817636975667</v>
       </c>
       <c r="O215" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
@@ -10912,34 +10923,34 @@
         <v>7.0499999999999989</v>
       </c>
       <c r="F216" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G216" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H216">
         <v>7.6010589996083899E-3</v>
       </c>
       <c r="I216" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J216" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K216" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L216" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M216" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N216">
         <v>12.289613694082711</v>
       </c>
       <c r="O216" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -10959,34 +10970,34 @@
         <v>6.4349999999999996</v>
       </c>
       <c r="F217" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G217" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H217">
         <v>9.9542536449032104E-3</v>
       </c>
       <c r="I217" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J217" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="K217" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L217" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="M217" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N217">
         <v>19.379984767121481</v>
       </c>
       <c r="O217" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -11006,34 +11017,34 @@
         <v>3.83</v>
       </c>
       <c r="F218" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G218" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H218">
         <v>7.7012308898141146E-3</v>
       </c>
       <c r="I218" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J218" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="K218" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L218" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M218" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N218">
         <v>44.411969959075122</v>
       </c>
       <c r="O218" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
@@ -11053,28 +11064,28 @@
         <v>6.03</v>
       </c>
       <c r="F219" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G219" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H219">
         <v>0.13936099731187199</v>
       </c>
       <c r="K219" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L219" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="M219" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N219">
         <v>4.318818240789656</v>
       </c>
       <c r="O219" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
@@ -11094,28 +11105,28 @@
         <v>6.72</v>
       </c>
       <c r="F220" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G220" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H220">
         <v>1.355261639116623E-2</v>
       </c>
       <c r="I220" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J220" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="M220" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N220">
         <v>14.10902313124879</v>
       </c>
       <c r="O220" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
@@ -11135,22 +11146,22 @@
         <v>4.6849999999999996</v>
       </c>
       <c r="F221" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G221" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H221">
         <v>1.5634632270320688E-2</v>
       </c>
       <c r="M221" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N221">
         <v>8.2215790333106575</v>
       </c>
       <c r="O221" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.3">
@@ -11170,22 +11181,22 @@
         <v>4.0149999999999997</v>
       </c>
       <c r="F222" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G222" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H222">
         <v>2.4673916948624308E-3</v>
       </c>
       <c r="M222" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N222">
         <v>42.095769311343282</v>
       </c>
       <c r="O222" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
@@ -11205,22 +11216,22 @@
         <v>3.4049999999999998</v>
       </c>
       <c r="F223" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G223" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H223">
         <v>7.2526471276834759E-4</v>
       </c>
       <c r="M223" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N223">
         <v>4.1337583914520541</v>
       </c>
       <c r="O223" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.3">
@@ -11240,22 +11251,22 @@
         <v>6.69</v>
       </c>
       <c r="F224" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G224" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H224">
         <v>7.7653392182263414E-2</v>
       </c>
       <c r="M224" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N224">
         <v>10.442079886131429</v>
       </c>
       <c r="O224" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
